--- a/utils/localisation_script/excel_to_json/ml/zlatest.xlsx
+++ b/utils/localisation_script/excel_to_json/ml/zlatest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sreejithv/TW/projects/ekStep/crowdsource-dataplatform/utils/localisation_script/excel_to_json/ml/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nireshkumarr/Documents/ekstep/crowdsource-dataplatform/utils/localisation_script/excel_to_json/ml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB6288B-81F3-9948-9D78-159F4D1E8181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75A9ABF-0EAE-5243-AA85-3BF57D967F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20400" xr2:uid="{8A6112F6-1D47-BF40-B99F-3DB2AA07C7EB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20400" xr2:uid="{8A6112F6-1D47-BF40-B99F-3DB2AA07C7EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -207,12 +207,6 @@
     <t>എല്ലാ ഫീൽഡുകളും ഓപ്ഷണലാണ്, പക്ഷേ ഡെമോഗ്രാഫിക് വിശദാംശങ്ങൾ നൽകിക്കൊണ്ട് നിങ്ങളുടെ ഡാറ്റാസെറ്റ് സംഭാവനയെ സമ്പന്നമാക്കാൻ കഴിയും</t>
   </si>
   <si>
-    <t>By proceeding ahead you agree to the &lt;a href=\"../terms-and-conditions.html\" target=\"_blank\"&gt; Terms and Conditions&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>മുന്നോട്ടു പോകുന്നതിലൂടെ നിങ്ങൾ &lt;a href=\"../terms-and-conditions.html\" target=\"_blank\"&gt; നിബന്ധനകളും വ്യവസ്ഥകളും&lt;/a&gt; അംഗീകരിക്കുന്നു</t>
-  </si>
-  <si>
     <t>Contribute your voice</t>
   </si>
   <si>
@@ -225,16 +219,22 @@
     <t>അവ൪ പറയുന്നത് ശരിയാണോയെന്ന് വിലയിരുത്തുക</t>
   </si>
   <si>
-    <t>You are just &lt;span id=\"sentense_away_count\"&gt;&lt;/span&gt; recordings away from earning your &lt;span id=\"next_badge_name\"&gt;&lt;/span&gt; Bhasha Samarthak Badge. &lt;a href=\"badges.html\"&gt;Know more&lt;/a&gt;</t>
+    <t>By proceeding ahead you agree to the &lt;a href="../terms-and-conditions.html" target="_blank"&gt; Terms and Conditions&lt;/a&gt;</t>
   </si>
   <si>
-    <t>നിങ്ങളുടെ &lt;span id=\"next_badge_name\"&gt;&lt;/span&gt; ഭാഷാ സമ൪ത്ഥക് ബാഡ്ജ് നേടുന്നതിൽ നിന്ന് നിങ്ങൾ &lt;span id="sentense_away_count"&gt;&lt;/span&gt; റെക്കോ൪ഡിംഗുകൾ മാത്രം അകലെയാണ്. &lt;a href=\"badges.html\"&gt;കൂടുതൽ അറിയുക&lt;/a&gt;</t>
+    <t>മുന്നോട്ടു പോകുന്നതിലൂടെ നിങ്ങൾ &lt;a href="../terms-and-conditions.html" target="_blank"&gt; നിബന്ധനകളും വ്യവസ്ഥകളും&lt;/a&gt; അംഗീകരിക്കുന്നു</t>
   </si>
   <si>
-    <t>You’ve earned a &lt;span id=\"current_badge_name_1\"&gt;&lt;/span&gt; Bhasha Samarthak Badge by validating &lt;span id=\"current_badge_count\"&gt;&lt;/span&gt; Images.</t>
+    <t>നിങ്ങളുടെ &lt;span id="next_badge_name"&gt;&lt;/span&gt; ഭാഷാ സമ൪ത്ഥക് ബാഡ്ജ് നേടുന്നതിൽ നിന്ന് നിങ്ങൾ &lt;span id="sentense_away_count"&gt;&lt;/span&gt; റെക്കോ൪ഡിംഗുകൾ മാത്രം അകലെയാണ്. &lt;a href="badges.html"&gt;കൂടുതൽ അറിയുക&lt;/a&gt;</t>
   </si>
   <si>
-    <t>&lt;span id=\"current_badge_count\"&gt;&lt;/span&gt; ചിത്രങ്ങൾ സാധൂകരിക്കുന്നതിലൂടെ നിങ്ങൾ &lt;span id=\"current_badge_name_1\"&gt;&lt;/span&gt; ഭാഷാ സമ൪ത്ഥക് ബാഡ്ജ് നേടി</t>
+    <t>&lt;span id="current_badge_count"&gt;&lt;/span&gt; ചിത്രങ്ങൾ സാധൂകരിക്കുന്നതിലൂടെ നിങ്ങൾ &lt;span id="current_badge_name_1"&gt;&lt;/span&gt; ഭാഷാ സമ൪ത്ഥക് ബാഡ്ജ് നേടി</t>
+  </si>
+  <si>
+    <t>You are just &lt;span id="sentense_away_count"&gt;&lt;/span&gt; recordings away from earning your &lt;span id="next_badge_name"&gt;&lt;/span&gt;  Bhasha Samarthak Badge. &lt;a href="badges.html"&gt;Know more&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>You’ve earned a  &lt;span id="current_badge_name_1"&gt;&lt;/span&gt;  Bhasha Samarthak Badge by validating &lt;span id="current_badge_count"&gt;&lt;/span&gt; Images.</t>
   </si>
 </sst>
 </file>
@@ -623,10 +623,13 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="160.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
@@ -1671,11 +1674,11 @@
     <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1703,11 +1706,11 @@
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1735,11 +1738,11 @@
     <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -1767,11 +1770,11 @@
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -1799,11 +1802,11 @@
     <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
